--- a/biology/Botanique/Boutelou_grêle/Boutelou_grêle.xlsx
+++ b/biology/Botanique/Boutelou_grêle/Boutelou_grêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boutelou_gr%C3%AAle</t>
+          <t>Boutelou_grêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Boutelou gracieux, Bouteloua aristidoides (synonymes : Bouteloua gracilis et Chondrosum gracile), est une espèce d'herbes vivaces de la famille des Poacées, originaire d'Amérique du Nord.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boutelou_gr%C3%AAle</t>
+          <t>Boutelou_grêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est présente dans une grande partie de l'Amérique du Nord. Au Canada, l'herbe est présente de l'Ontario jusqu'en Colombie-Britannique. Aux États-Unis, elle est présente dans la région des montagnes Rocheuses, dans les grandes plaines et le Midwest jusqu'au Mexique. Elle est uniquement absente à l'extrême nord-ouest du pays ainsi que dans plusieurs états du sud-est[3]. Elle apprécie de nombreux types d'environnement. La plante est tolérante au froid, à la sécheresse et au bétail qui s'en nourrit.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est présente dans une grande partie de l'Amérique du Nord. Au Canada, l'herbe est présente de l'Ontario jusqu'en Colombie-Britannique. Aux États-Unis, elle est présente dans la région des montagnes Rocheuses, dans les grandes plaines et le Midwest jusqu'au Mexique. Elle est uniquement absente à l'extrême nord-ouest du pays ainsi que dans plusieurs états du sud-est. Elle apprécie de nombreux types d'environnement. La plante est tolérante au froid, à la sécheresse et au bétail qui s'en nourrit.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boutelou_gr%C3%AAle</t>
+          <t>Boutelou_grêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herbe atteint une hauteur de 15 à 30 cm. Ses racines s'étendent entre 30 et 45 cm autour de la plante à une profondeur variant de 0,9 à 1,8 mètre. Sa coloration est verte avec des teintes grises.
 Elle se propage grâce à ses graines mais surtout par ses rejets. Les graines sont dispersées par le vent de seulement quelques mètres. Des distances de propagation plus importantes sont possibles lorsqu'elles sont transportées par des insectes, des oiseaux ou des mammifères. La propagation par graines est d'autant meilleure quand l'herbe est isolée.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Boutelou_gr%C3%AAle</t>
+          <t>Boutelou_grêle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herbe est utilisée dans la lutte contre l'érosion des sols. Elle est utilisée pour nourrir le bétail et parfois même dans la décoration lorsqu'elle est séchée. Il s'agit de l'herbe symbole du Colorado et du Nouveau-Mexique. Elle est présente sur la liste des espèces menacées de l'État de l'Illinois.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boutelou_gr%C3%AAle</t>
+          <t>Boutelou_grêle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,16 +624,18 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 août 2014)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Bouteloua aristidoides var. aristidoides
 variété Bouteloua aristidoides var. arizonica M.E. Jones
-Selon Tropicos                                           (5 août 2014)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Bouteloua gracilis var. gracilis
 variété Bouteloua gracilis var. major (Vasey ex L.H. Dewey) Beetle
 variété Bouteloua gracilis var. stricta (Vasey) Hitchc.
-Selon Tropicos                                           (5 août 2014)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Chondrosum gracile var. gracile
 variété Chondrosum gracile var. polystachyum Nees</t>
         </is>
